--- a/Year 1 - Sem 1/ITC 1370 - IT/ITC - Activities/Activity 02-20240808/02- SS-Activities   - Activities Data.xlsx
+++ b/Year 1 - Sem 1/ITC 1370 - IT/ITC - Activities/Activity 02-20240808/02- SS-Activities   - Activities Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0001\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REDTECH\OneDrive\Documents\Obsidian\USJ-BMC\Year 1 - Sem 1\ITC 1370 - IT\ITC - Activities\Activity 02-20240808\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095CB772-A2DB-417C-B8FD-FA1B84C4B0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D249919-ED77-4E60-8539-B714651F0777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity 02.2" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="175">
   <si>
     <t>Flavour</t>
   </si>
@@ -476,6 +476,102 @@
   </si>
   <si>
     <t>Minimum</t>
+  </si>
+  <si>
+    <t>EXE2004</t>
+  </si>
+  <si>
+    <t>Rs. 150,000.00</t>
+  </si>
+  <si>
+    <t>Rs. 15,000.00</t>
+  </si>
+  <si>
+    <t>Rs. 300.00</t>
+  </si>
+  <si>
+    <t>TRA2006</t>
+  </si>
+  <si>
+    <t>Rs. 75,000.00</t>
+  </si>
+  <si>
+    <t>Rs. 7,500.00</t>
+  </si>
+  <si>
+    <t>Rs. -</t>
+  </si>
+  <si>
+    <t>Rs. 82,500.00</t>
+  </si>
+  <si>
+    <t>Rs. 176,000.00</t>
+  </si>
+  <si>
+    <t>Rs. 176.00</t>
+  </si>
+  <si>
+    <t>EXE2022</t>
+  </si>
+  <si>
+    <t>Rs. 40,000.00</t>
+  </si>
+  <si>
+    <t>Rs. 80.00</t>
+  </si>
+  <si>
+    <t>EXE2010</t>
+  </si>
+  <si>
+    <t>Rs. 286,000.00</t>
+  </si>
+  <si>
+    <t>Rs. 28,600.00</t>
+  </si>
+  <si>
+    <t>Rs. 572.00</t>
+  </si>
+  <si>
+    <t>MAN2011</t>
+  </si>
+  <si>
+    <t>Rs. 575,000.00</t>
+  </si>
+  <si>
+    <t>Rs. 57,500.00</t>
+  </si>
+  <si>
+    <t>Rs. 1,437.50</t>
+  </si>
+  <si>
+    <t>Rs. 631,062.50</t>
+  </si>
+  <si>
+    <t>Rs. 1,302,000.00</t>
+  </si>
+  <si>
+    <t>Rs. 108,600.00</t>
+  </si>
+  <si>
+    <t>Rs. 2,565.50</t>
+  </si>
+  <si>
+    <t>Rs. 1,408,034.50</t>
+  </si>
+  <si>
+    <t>Rs. 217,000.00</t>
+  </si>
+  <si>
+    <t>Rs. 18,100.00</t>
+  </si>
+  <si>
+    <t>Rs. 427.58</t>
+  </si>
+  <si>
+    <t>Rs. 234,672.42</t>
+  </si>
+  <si>
+    <t>Rs. 172,882.67</t>
   </si>
 </sst>
 </file>
@@ -489,11 +585,18 @@
     <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="_-[$Rs.-849]\ * #,##0.00_-;\-[$Rs.-849]\ * #,##0.00_-;_-[$Rs.-849]\ * &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -685,7 +788,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -899,21 +1002,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -923,125 +1011,175 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1288,7 +1426,7 @@
   <dimension ref="A2:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1296,7 +1434,7 @@
     <col min="1" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
@@ -1371,21 +1509,33 @@
       <c r="C4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>138</v>
       </c>
       <c r="F4" s="5">
         <v>38048</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7">
-        <v>150000</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="G4" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="3">
+        <v>20</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="7">
+        <v>152</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3">
@@ -1397,21 +1547,33 @@
       <c r="C5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="5">
         <v>38880</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7">
-        <v>75000</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="G5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" s="3">
+        <v>18</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2151</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3">
@@ -1423,21 +1585,33 @@
       <c r="C6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="E6" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="5">
         <v>42433</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7">
-        <v>176000</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="G6" s="69">
+        <v>42522</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" s="3">
+        <v>8</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L6" s="7">
+        <v>515135</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3">
@@ -1449,21 +1623,33 @@
       <c r="C7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>138</v>
       </c>
       <c r="F7" s="5">
         <v>44562</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7">
-        <v>40000</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="G7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1515</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3">
@@ -1475,21 +1661,33 @@
       <c r="C8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>138</v>
       </c>
       <c r="F8" s="5">
         <v>40413</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7">
-        <v>286000</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="G8" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="3">
+        <v>14</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L8" s="7">
+        <v>54545</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3">
@@ -1501,101 +1699,143 @@
       <c r="C9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F9" s="5">
         <v>40793</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7">
-        <v>575000</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="G9" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" s="3">
+        <v>13</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L9" s="7">
+        <v>5151</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="8"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="8" t="s">
+        <v>166</v>
+      </c>
       <c r="I10" s="9"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="J10" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="8" t="s">
+        <v>170</v>
+      </c>
       <c r="I11" s="9"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="J11" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1"/>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="I13" s="26" t="s">
         <v>59</v>
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13" s="70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="I14" s="27" t="s">
         <v>60</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="L14" s="72">
+        <f>+MIN(L4:L9)</f>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="I15" s="27" t="s">
         <v>61</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="30"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="L15" s="71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="I16" s="27" t="s">
         <v>62</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="17" spans="9:12">
+      <c r="L16" s="71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" ht="15.75" thickBot="1">
       <c r="I17" s="28" t="s">
         <v>63</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="9:12">
+      <c r="L17" s="71" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12" ht="15.75" thickBot="1">
       <c r="I18" s="29" t="s">
         <v>64</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
-      <c r="L18" s="7"/>
+      <c r="L18" s="71" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="21" spans="9:12" ht="15.75" customHeight="1"/>
     <row r="22" spans="9:12" ht="15.75" customHeight="1"/>
@@ -2578,10 +2818,8 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -2613,297 +2851,297 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="56"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="33" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37">
+      <c r="D3" s="35"/>
+      <c r="E3" s="36">
         <v>49</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="36">
         <v>55</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="36">
         <v>66</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="36">
         <v>38</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37">
+      <c r="D4" s="35"/>
+      <c r="E4" s="36">
         <v>90</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="36">
         <v>69</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="36">
         <v>80</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="36">
         <v>88</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37">
+      <c r="D5" s="35"/>
+      <c r="E5" s="36">
         <v>91</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="36">
         <v>51</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="36">
         <v>57</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="36">
         <v>57</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37">
+      <c r="D6" s="35"/>
+      <c r="E6" s="36">
         <v>95</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="36">
         <v>37</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="36">
         <v>51</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="36">
         <v>82</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37">
+      <c r="D7" s="35"/>
+      <c r="E7" s="36">
         <v>55</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="36">
         <v>58</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="36">
         <v>50</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="36">
         <v>35</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37">
+      <c r="D8" s="35"/>
+      <c r="E8" s="36">
         <v>90</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="36">
         <v>58</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="36">
         <v>74</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="36">
         <v>44</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="39"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37">
+      <c r="D9" s="35"/>
+      <c r="E9" s="36">
         <v>84</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="36">
         <v>92</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="36">
         <v>91</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <v>75</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37">
+      <c r="D10" s="35"/>
+      <c r="E10" s="36">
         <v>56</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="36">
         <v>34</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="36">
         <v>43</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="36">
         <v>37</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37">
+      <c r="D11" s="35"/>
+      <c r="E11" s="36">
         <v>57</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="36">
         <v>56</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="36">
         <v>96</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="36">
         <v>52</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="1:11"/>
     <row r="13" spans="1:11">
@@ -2921,76 +3159,76 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="14"/>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
       <c r="J14" s="18"/>
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="14"/>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="58"/>
       <c r="J15" s="19"/>
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="14"/>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="19"/>
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="14"/>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="18"/>
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="14"/>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
       <c r="J18" s="18"/>
       <c r="K18" s="14"/>
     </row>
@@ -4034,31 +4272,31 @@
       <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="40" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4395,120 +4633,120 @@
       <c r="I18" s="4"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="40"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="39"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
       <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="40"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="39"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="40"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="39"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="49"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="40"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="39"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="50"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="49"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="49"/>
       <c r="I27" s="17"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="49"/>
       <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1"/>
@@ -5486,16 +5724,16 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5524,48 +5762,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="41" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5989,98 +6227,98 @@
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="A24" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50"/>
-      <c r="I26" s="44"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
+      <c r="I26" s="43"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="50"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="50"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="50"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="65"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="A32" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="50"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="49"/>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
